--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Dll4-Notch2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Dll4-Notch2.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>36.16916666666667</v>
+        <v>36.75793933333333</v>
       </c>
       <c r="H2">
-        <v>108.5075</v>
+        <v>110.273818</v>
       </c>
       <c r="I2">
-        <v>0.9882701353977675</v>
+        <v>0.9858943139827973</v>
       </c>
       <c r="J2">
-        <v>0.9882701353977674</v>
+        <v>0.9858943139827971</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.96029466666667</v>
+        <v>0.9705896666666667</v>
       </c>
       <c r="N2">
-        <v>95.88088399999999</v>
+        <v>2.911769</v>
       </c>
       <c r="O2">
-        <v>0.3907265741426954</v>
+        <v>0.02073452941466921</v>
       </c>
       <c r="P2">
-        <v>0.3907265741426953</v>
+        <v>0.02073452941466921</v>
       </c>
       <c r="Q2">
-        <v>1155.977224514445</v>
+        <v>35.67687608489356</v>
       </c>
       <c r="R2">
-        <v>10403.79502063</v>
+        <v>321.091884764042</v>
       </c>
       <c r="S2">
-        <v>0.3861434043315075</v>
+        <v>0.02044205465303144</v>
       </c>
       <c r="T2">
-        <v>0.3861434043315073</v>
+        <v>0.02044205465303143</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>36.16916666666667</v>
+        <v>36.75793933333333</v>
       </c>
       <c r="H3">
-        <v>108.5075</v>
+        <v>110.273818</v>
       </c>
       <c r="I3">
-        <v>0.9882701353977675</v>
+        <v>0.9858943139827973</v>
       </c>
       <c r="J3">
-        <v>0.9882701353977674</v>
+        <v>0.9858943139827971</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>79.04420999999999</v>
       </c>
       <c r="O3">
-        <v>0.3221150253382706</v>
+        <v>0.5628689972673966</v>
       </c>
       <c r="P3">
-        <v>0.3221150253382706</v>
+        <v>0.5628689972673966</v>
       </c>
       <c r="Q3">
-        <v>952.9877351749999</v>
+        <v>968.5007586104199</v>
       </c>
       <c r="R3">
-        <v>8576.889616574999</v>
+        <v>8716.50682749378</v>
       </c>
       <c r="S3">
-        <v>0.318336659704708</v>
+        <v>0.554929343923125</v>
       </c>
       <c r="T3">
-        <v>0.3183366597047079</v>
+        <v>0.5549293439231249</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>36.16916666666667</v>
+        <v>36.75793933333333</v>
       </c>
       <c r="H4">
-        <v>108.5075</v>
+        <v>110.273818</v>
       </c>
       <c r="I4">
-        <v>0.9882701353977675</v>
+        <v>0.9858943139827973</v>
       </c>
       <c r="J4">
-        <v>0.9882701353977674</v>
+        <v>0.9858943139827971</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>23.48872</v>
+        <v>19.49164633333333</v>
       </c>
       <c r="N4">
-        <v>70.46615999999999</v>
+        <v>58.47493899999999</v>
       </c>
       <c r="O4">
-        <v>0.287158400519034</v>
+        <v>0.4163964733179342</v>
       </c>
       <c r="P4">
-        <v>0.2871584005190339</v>
+        <v>0.4163964733179341</v>
       </c>
       <c r="Q4">
-        <v>849.5674284666666</v>
+        <v>716.4727534274557</v>
       </c>
       <c r="R4">
-        <v>7646.106856199999</v>
+        <v>6448.254780847102</v>
       </c>
       <c r="S4">
-        <v>0.283790071361552</v>
+        <v>0.4105229154066408</v>
       </c>
       <c r="T4">
-        <v>0.283790071361552</v>
+        <v>0.4105229154066408</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.140037</v>
       </c>
       <c r="I5">
-        <v>0.001275436121472683</v>
+        <v>0.001251989679428792</v>
       </c>
       <c r="J5">
-        <v>0.001275436121472683</v>
+        <v>0.001251989679428792</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>31.96029466666667</v>
+        <v>0.9705896666666667</v>
       </c>
       <c r="N5">
-        <v>95.88088399999999</v>
+        <v>2.911769</v>
       </c>
       <c r="O5">
-        <v>0.3907265741426954</v>
+        <v>0.02073452941466921</v>
       </c>
       <c r="P5">
-        <v>0.3907265741426953</v>
+        <v>0.02073452941466921</v>
       </c>
       <c r="Q5">
-        <v>1.491874594745333</v>
+        <v>0.04530615505033334</v>
       </c>
       <c r="R5">
-        <v>13.426871352708</v>
+        <v>0.407755395453</v>
       </c>
       <c r="S5">
-        <v>0.0004983467862808682</v>
+        <v>2.595941683497858E-05</v>
       </c>
       <c r="T5">
-        <v>0.000498346786280868</v>
+        <v>2.595941683497857E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.140037</v>
       </c>
       <c r="I6">
-        <v>0.001275436121472683</v>
+        <v>0.001251989679428792</v>
       </c>
       <c r="J6">
-        <v>0.001275436121472683</v>
+        <v>0.001251989679428792</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>79.04420999999999</v>
       </c>
       <c r="O6">
-        <v>0.3221150253382706</v>
+        <v>0.5628689972673966</v>
       </c>
       <c r="P6">
-        <v>0.3221150253382706</v>
+        <v>0.5628689972673966</v>
       </c>
       <c r="Q6">
         <v>1.22990155953</v>
@@ -818,10 +818,10 @@
         <v>11.06911403577</v>
       </c>
       <c r="S6">
-        <v>0.0004108371385855189</v>
+        <v>0.0007047061754492137</v>
       </c>
       <c r="T6">
-        <v>0.0004108371385855188</v>
+        <v>0.0007047061754492134</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.140037</v>
       </c>
       <c r="I7">
-        <v>0.001275436121472683</v>
+        <v>0.001251989679428792</v>
       </c>
       <c r="J7">
-        <v>0.001275436121472683</v>
+        <v>0.001251989679428792</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>23.48872</v>
+        <v>19.49164633333333</v>
       </c>
       <c r="N7">
-        <v>70.46615999999999</v>
+        <v>58.47493899999999</v>
       </c>
       <c r="O7">
-        <v>0.287158400519034</v>
+        <v>0.4163964733179342</v>
       </c>
       <c r="P7">
-        <v>0.2871584005190339</v>
+        <v>0.4163964733179341</v>
       </c>
       <c r="Q7">
-        <v>1.09642996088</v>
+        <v>0.9098505591936665</v>
       </c>
       <c r="R7">
-        <v>9.867869647919997</v>
+        <v>8.188655032742998</v>
       </c>
       <c r="S7">
-        <v>0.000366252196606296</v>
+        <v>0.0005213240871446001</v>
       </c>
       <c r="T7">
-        <v>0.0003662521966062958</v>
+        <v>0.0005213240871445998</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.3826160000000001</v>
+        <v>0.4792353333333333</v>
       </c>
       <c r="H8">
-        <v>1.147848</v>
+        <v>1.437706</v>
       </c>
       <c r="I8">
-        <v>0.01045442848075992</v>
+        <v>0.01285369633777395</v>
       </c>
       <c r="J8">
-        <v>0.01045442848075992</v>
+        <v>0.01285369633777395</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>31.96029466666667</v>
+        <v>0.9705896666666667</v>
       </c>
       <c r="N8">
-        <v>95.88088399999999</v>
+        <v>2.911769</v>
       </c>
       <c r="O8">
-        <v>0.3907265741426954</v>
+        <v>0.02073452941466921</v>
       </c>
       <c r="P8">
-        <v>0.3907265741426953</v>
+        <v>0.02073452941466921</v>
       </c>
       <c r="Q8">
-        <v>12.22852010418134</v>
+        <v>0.4651408624348888</v>
       </c>
       <c r="R8">
-        <v>110.056680937632</v>
+        <v>4.186267761914</v>
       </c>
       <c r="S8">
-        <v>0.004084823024907146</v>
+        <v>0.0002665153448028</v>
       </c>
       <c r="T8">
-        <v>0.004084823024907145</v>
+        <v>0.0002665153448027999</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.3826160000000001</v>
+        <v>0.4792353333333333</v>
       </c>
       <c r="H9">
-        <v>1.147848</v>
+        <v>1.437706</v>
       </c>
       <c r="I9">
-        <v>0.01045442848075992</v>
+        <v>0.01285369633777395</v>
       </c>
       <c r="J9">
-        <v>0.01045442848075992</v>
+        <v>0.01285369633777395</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>79.04420999999999</v>
       </c>
       <c r="O9">
-        <v>0.3221150253382706</v>
+        <v>0.5628689972673966</v>
       </c>
       <c r="P9">
-        <v>0.3221150253382706</v>
+        <v>0.5628689972673966</v>
       </c>
       <c r="Q9">
-        <v>10.08119315112</v>
+        <v>12.62692610914</v>
       </c>
       <c r="R9">
-        <v>90.73073836008001</v>
+        <v>113.64233498226</v>
       </c>
       <c r="S9">
-        <v>0.003367528494977119</v>
+        <v>0.007234947168822432</v>
       </c>
       <c r="T9">
-        <v>0.003367528494977118</v>
+        <v>0.007234947168822431</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.3826160000000001</v>
+        <v>0.4792353333333333</v>
       </c>
       <c r="H10">
-        <v>1.147848</v>
+        <v>1.437706</v>
       </c>
       <c r="I10">
-        <v>0.01045442848075992</v>
+        <v>0.01285369633777395</v>
       </c>
       <c r="J10">
-        <v>0.01045442848075992</v>
+        <v>0.01285369633777395</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.48872</v>
+        <v>19.49164633333333</v>
       </c>
       <c r="N10">
-        <v>70.46615999999999</v>
+        <v>58.47493899999999</v>
       </c>
       <c r="O10">
-        <v>0.287158400519034</v>
+        <v>0.4163964733179342</v>
       </c>
       <c r="P10">
-        <v>0.2871584005190339</v>
+        <v>0.4163964733179341</v>
       </c>
       <c r="Q10">
-        <v>8.98716009152</v>
+        <v>9.341085627770443</v>
       </c>
       <c r="R10">
-        <v>80.88444082367999</v>
+        <v>84.06977064993399</v>
       </c>
       <c r="S10">
-        <v>0.003002076960875652</v>
+        <v>0.005352233824148719</v>
       </c>
       <c r="T10">
-        <v>0.003002076960875651</v>
+        <v>0.005352233824148719</v>
       </c>
     </row>
   </sheetData>
